--- a/data/profiles/xlsx/bluff/profile 21-17 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 21-17 graph.xlsx
@@ -1290,11 +1290,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48067520"/>
-        <c:axId val="925777"/>
+        <c:axId val="52786635"/>
+        <c:axId val="36852933"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48067520"/>
+        <c:axId val="52786635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,12 +1329,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925777"/>
+        <c:crossAx val="36852933"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="925777"/>
+        <c:axId val="36852933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48067520"/>
+        <c:crossAx val="52786635"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
